--- a/biology/Botanique/Tsuga/Tsuga.xlsx
+++ b/biology/Botanique/Tsuga/Tsuga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tsuga, appelés pruches au Québec, est un genre de plantes de la famille des Pinaceae. Ce sont des conifères décoratifs avec leur silhouette irrégulière et leurs branches et rameaux légèrement pendants. Ces arbres ne sont pas des sapins, malgré le nom de sapin du Canada qu'on leur donne parfois.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine, aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tsuga vient d'Amérique du Nord et d'Asie, où il croît dans des endroits frais, souvent rocheux, comme les gorges humides.
 Il a été introduit en Europe dès 1740 et s’est depuis considérablement propagé. On le trouve le plus souvent dans les parcs et les jardins.
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette essence a été décrite pour la première fois par le botaniste français Élie-Abel Carrière (1818-1896).
 Il peut mesurer jusqu’à 20-60 mètres de haut, avec une forme pyramidale large et irrégulière. Ce conifère a un seul tronc dans son pays d’origine mais peut en avoir plusieurs en Europe.
@@ -578,7 +594,9 @@
           <t>Les espèces de Tsuga (ou pruches)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On en rencontre 10 espèces :
 Tsuga canadensis (Pruche du Canada)
@@ -620,7 +638,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Tsuga n’est que peu exploité car son bois est de qualité assez médiocre, mais il a été localement très exploité, voire surexploité pour son écorce riche en tanin.
 </t>
